--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449027.362435252</v>
+        <v>-449726.7725424425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1868545.583905888</v>
+        <v>1868545.583905886</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>61.0355601600055</v>
       </c>
       <c r="D2" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>94.21910266041154</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>82.98818562329049</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>82.98818562329046</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>94.21910266041154</v>
+        <v>23.80175940728708</v>
       </c>
       <c r="X3" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>79.5986541508852</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="S4" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>82.98818562329075</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>94.21910266041154</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>82.98818562329049</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>65.52275918131211</v>
       </c>
       <c r="I5" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>23.80175940728708</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>82.98818562329046</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="X6" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.21910266041154</v>
+        <v>44.83621769044292</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="V7" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="W7" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.5315194233215</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>319.8762849093197</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>211.0425559049227</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.7647807610956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>3.949204371704636</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>128.0869399999848</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W10" t="n">
-        <v>277.0140198902758</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5058001214171</v>
       </c>
       <c r="C11" t="n">
-        <v>289.5171170790989</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>280.4984211236268</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2405586935324</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>68.01828229617142</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.9636916056461</v>
+        <v>322.963691605646</v>
       </c>
       <c r="H11" t="n">
-        <v>236.9841012279519</v>
+        <v>236.9841012279518</v>
       </c>
       <c r="I11" t="n">
-        <v>67.7665540490122</v>
+        <v>67.76655404901214</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.05567153202338</v>
+        <v>88.05567153202333</v>
       </c>
       <c r="T11" t="n">
         <v>131.8460619815677</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7086228358612</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0121773615963</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3122768395532</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>57.26102507888709</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.0091328684985</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.2368531361802</v>
+        <v>127.2368531361808</v>
       </c>
       <c r="H12" t="n">
         <v>96.9647737324037</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869178</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.12251099611422</v>
+        <v>84.53971117982354</v>
       </c>
       <c r="C13" t="n">
-        <v>79.3225058415147</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.94387023909309</v>
+        <v>62.94387023909303</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35854442305885</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.46191704206589</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.65833440264905</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66435872030538</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.72563515054819</v>
+        <v>51.72563515054814</v>
       </c>
       <c r="S13" t="n">
         <v>119.9895445490431</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>141.5178128501455</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7116878360598</v>
+        <v>195.7116878360597</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W13" t="n">
-        <v>194.6975334663531</v>
+        <v>194.697533466353</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3426354621562</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2175032182239</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5058001214172</v>
+        <v>301.5058001214171</v>
       </c>
       <c r="C14" t="n">
         <v>289.5171170790989</v>
       </c>
       <c r="D14" t="n">
-        <v>280.4984211236269</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2405586935324</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4123747815096</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.9636916056461</v>
+        <v>81.59348565676149</v>
       </c>
       <c r="H14" t="n">
-        <v>71.50475058590759</v>
+        <v>236.9841012279519</v>
       </c>
       <c r="I14" t="n">
-        <v>67.76655404901221</v>
+        <v>67.76655404901214</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.0556715320234</v>
+        <v>88.05567153202333</v>
       </c>
       <c r="T14" t="n">
         <v>131.8460619815677</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X14" t="n">
-        <v>289.6125350722998</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>301.0091328684985</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>137.4502506396906</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1704,7 +1704,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214972</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112411</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575066</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.12251099611424</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.32250584151473</v>
+        <v>79.32250584151464</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.94387023909303</v>
       </c>
       <c r="E16" t="n">
-        <v>61.89162009487256</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78.46191704206592</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.65833440264907</v>
+        <v>56.9428404888571</v>
       </c>
       <c r="I16" t="n">
-        <v>49.01134651062365</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.72563515054821</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.9895445490432</v>
+        <v>119.9895445490431</v>
       </c>
       <c r="T16" t="n">
-        <v>141.5178128501456</v>
+        <v>141.5178128501455</v>
       </c>
       <c r="U16" t="n">
-        <v>108.4245678334883</v>
+        <v>195.7116878360597</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5306473957398</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.697533466353</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3426354621562</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2175032182239</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="17">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>137.4502506396906</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1941,7 +1941,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214972</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112411</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S18" t="n">
         <v>147.4755605575066</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.18671644379455</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.00704408486155</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T19" t="n">
         <v>64.53531238596393</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C20" t="n">
         <v>212.5346166149173</v>
       </c>
       <c r="D20" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E20" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F20" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G20" t="n">
         <v>245.9811911414645</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.07317106784177</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T20" t="n">
-        <v>54.86356151738613</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U20" t="n">
-        <v>86.72612237167959</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V20" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W20" t="n">
         <v>193.3297763753716</v>
@@ -2147,7 +2147,7 @@
         <v>212.6300346081182</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H21" t="n">
-        <v>96.9647737324037</v>
+        <v>96.96477373240431</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214972</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>147.4755605575066</v>
       </c>
       <c r="T21" t="n">
-        <v>185.9745311655623</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U21" t="n">
         <v>216.2963996197277</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.1400105319326</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C22" t="n">
-        <v>2.340005377333085</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>69.38130826241024</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.479416577884286</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138464</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.00704408486152</v>
+        <v>136.193760528656</v>
       </c>
       <c r="T22" t="n">
-        <v>64.53531238596391</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U22" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V22" t="n">
-        <v>92.54814693155819</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W22" t="n">
         <v>117.7150330021715</v>
       </c>
       <c r="X22" t="n">
-        <v>63.36013499797457</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.23500275404226</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C23" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D23" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E23" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F23" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G23" t="n">
         <v>245.9811911414645</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.07317106784174</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T23" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U23" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V23" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W23" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X23" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y23" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>133.346860069625</v>
       </c>
       <c r="G24" t="n">
         <v>127.2368531361802</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C25" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>136.1937605286566</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T25" t="n">
-        <v>64.53531238596388</v>
+        <v>157.7220288297584</v>
       </c>
       <c r="U25" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V25" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W25" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X25" t="n">
-        <v>63.36013499797454</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.23500275404223</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>262.5123432785608</v>
       </c>
       <c r="E26" t="n">
-        <v>284.2544808484664</v>
+        <v>284.2544808484663</v>
       </c>
       <c r="F26" t="n">
         <v>303.4262969364435</v>
@@ -2573,7 +2573,7 @@
         <v>218.9980233828859</v>
       </c>
       <c r="I26" t="n">
-        <v>49.78047620394615</v>
+        <v>49.78047620394614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.06959368695733</v>
+        <v>70.06959368695732</v>
       </c>
       <c r="T26" t="n">
         <v>113.8599841365017</v>
@@ -2621,7 +2621,7 @@
         <v>271.6264572272337</v>
       </c>
       <c r="Y26" t="n">
-        <v>283.0230550234325</v>
+        <v>283.0230550234324</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.13643315104817</v>
+        <v>75.13643315104815</v>
       </c>
       <c r="C28" t="n">
-        <v>61.33642799644865</v>
+        <v>61.33642799644863</v>
       </c>
       <c r="D28" t="n">
-        <v>44.95779239402704</v>
+        <v>44.95779239402702</v>
       </c>
       <c r="E28" t="n">
-        <v>43.90554224980649</v>
+        <v>43.90554224980647</v>
       </c>
       <c r="F28" t="n">
-        <v>44.3724665779928</v>
+        <v>44.37246657799278</v>
       </c>
       <c r="G28" t="n">
-        <v>60.47583919699985</v>
+        <v>60.47583919699984</v>
       </c>
       <c r="H28" t="n">
-        <v>49.672256557583</v>
+        <v>49.67225655758298</v>
       </c>
       <c r="I28" t="n">
-        <v>31.02526866555758</v>
+        <v>31.02526866555757</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.73955730548214</v>
+        <v>33.73955730548213</v>
       </c>
       <c r="S28" t="n">
         <v>102.0034667039771</v>
@@ -2767,10 +2767,10 @@
         <v>123.5317350050795</v>
       </c>
       <c r="U28" t="n">
-        <v>177.7256099909938</v>
+        <v>177.7256099909937</v>
       </c>
       <c r="V28" t="n">
-        <v>151.5445695506738</v>
+        <v>151.5445695506737</v>
       </c>
       <c r="W28" t="n">
         <v>176.711455621287</v>
@@ -2807,7 +2807,7 @@
         <v>304.9776137605801</v>
       </c>
       <c r="H29" t="n">
-        <v>218.9980233828858</v>
+        <v>218.9980233828859</v>
       </c>
       <c r="I29" t="n">
         <v>49.78047620394614</v>
@@ -3035,13 +3035,13 @@
         <v>203.5159206594452</v>
       </c>
       <c r="E32" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F32" t="n">
         <v>244.4298743173279</v>
       </c>
       <c r="G32" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H32" t="n">
         <v>160.0016007637703</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.07317106784174</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T32" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U32" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V32" t="n">
         <v>168.0296768974146</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C34" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.6661330216793</v>
+        <v>1.479416577884229</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.00704408486149</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T34" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U34" t="n">
-        <v>118.7291873718782</v>
+        <v>211.9159038156734</v>
       </c>
       <c r="V34" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155814</v>
       </c>
       <c r="W34" t="n">
         <v>117.7150330021714</v>
       </c>
       <c r="X34" t="n">
-        <v>63.36013499797454</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.23500275404223</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C35" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D35" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E35" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F35" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G35" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H35" t="n">
         <v>160.0016007637703</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.07317106784171</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T35" t="n">
-        <v>54.86356151738607</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U35" t="n">
-        <v>86.72612237167954</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V35" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W35" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X35" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C37" t="n">
-        <v>95.52672182112828</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.00704408486146</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T37" t="n">
-        <v>64.53531238596385</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U37" t="n">
-        <v>118.7291873718781</v>
+        <v>118.7291873718782</v>
       </c>
       <c r="V37" t="n">
-        <v>92.54814693155814</v>
+        <v>185.7348633753526</v>
       </c>
       <c r="W37" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X37" t="n">
-        <v>63.36013499797451</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="38">
@@ -3718,7 +3718,7 @@
         <v>118.7291873718781</v>
       </c>
       <c r="V40" t="n">
-        <v>92.54814693155814</v>
+        <v>185.7348633753535</v>
       </c>
       <c r="W40" t="n">
         <v>117.7150330021714</v>
@@ -3727,7 +3727,7 @@
         <v>63.36013499797451</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.4217191978375</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C41" t="n">
-        <v>212.5346166149173</v>
+        <v>212.5346166149172</v>
       </c>
       <c r="D41" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E41" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F41" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G41" t="n">
         <v>245.9811911414645</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784174</v>
       </c>
       <c r="T41" t="n">
-        <v>54.86356151738616</v>
+        <v>54.8635615173861</v>
       </c>
       <c r="U41" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167957</v>
       </c>
       <c r="V41" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3297763753716</v>
+        <v>193.3297763753715</v>
       </c>
       <c r="X41" t="n">
-        <v>212.6300346081182</v>
+        <v>212.6300346081181</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S42" t="n">
         <v>147.4755605575066</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14001053193263</v>
+        <v>16.14001053193257</v>
       </c>
       <c r="C43" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333057</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.479416577884314</v>
+        <v>1.479416577884258</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.00704408486155</v>
+        <v>43.00704408486149</v>
       </c>
       <c r="T43" t="n">
-        <v>157.7220288297584</v>
+        <v>64.53531238596388</v>
       </c>
       <c r="U43" t="n">
-        <v>118.7291873718782</v>
+        <v>211.9159038156733</v>
       </c>
       <c r="V43" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155816</v>
       </c>
       <c r="W43" t="n">
-        <v>117.7150330021715</v>
+        <v>117.7150330021714</v>
       </c>
       <c r="X43" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797454</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.23500275404228</v>
+        <v>54.23500275404223</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C44" t="n">
-        <v>212.5346166149173</v>
+        <v>212.5346166149172</v>
       </c>
       <c r="D44" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E44" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F44" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G44" t="n">
         <v>245.9811911414645</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784174</v>
       </c>
       <c r="T44" t="n">
-        <v>54.86356151738615</v>
+        <v>54.8635615173861</v>
       </c>
       <c r="U44" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167957</v>
       </c>
       <c r="V44" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W44" t="n">
-        <v>193.3297763753716</v>
+        <v>193.3297763753715</v>
       </c>
       <c r="X44" t="n">
-        <v>212.6300346081182</v>
+        <v>212.6300346081181</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H45" t="n">
-        <v>96.9647737324037</v>
+        <v>96.96477373240342</v>
       </c>
       <c r="I45" t="n">
         <v>60.66232013214973</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14001053193263</v>
+        <v>16.14001053193257</v>
       </c>
       <c r="C46" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333057</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.479416577884314</v>
+        <v>1.479416577884258</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.00704408486155</v>
+        <v>136.1937605286566</v>
       </c>
       <c r="T46" t="n">
-        <v>64.53531238596393</v>
+        <v>64.53531238596388</v>
       </c>
       <c r="U46" t="n">
         <v>118.7291873718782</v>
       </c>
       <c r="V46" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155816</v>
       </c>
       <c r="W46" t="n">
-        <v>210.9017494459659</v>
+        <v>117.7150330021714</v>
       </c>
       <c r="X46" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797454</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.23500275404228</v>
+        <v>54.23500275404223</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.8764106416461</v>
+        <v>186.5347891054618</v>
       </c>
       <c r="C2" t="n">
-        <v>376.8764106416461</v>
+        <v>124.8827081357593</v>
       </c>
       <c r="D2" t="n">
-        <v>281.7055998735537</v>
+        <v>124.8827081357593</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7055998735537</v>
+        <v>124.8827081357593</v>
       </c>
       <c r="F2" t="n">
-        <v>186.5347891054612</v>
+        <v>114.7719214863337</v>
       </c>
       <c r="G2" t="n">
-        <v>102.7083389809254</v>
+        <v>102.7083389809257</v>
       </c>
       <c r="H2" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I2" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J2" t="n">
-        <v>7.537528212832923</v>
+        <v>79.53607248563861</v>
       </c>
       <c r="K2" t="n">
-        <v>7.537528212832923</v>
+        <v>79.53607248563861</v>
       </c>
       <c r="L2" t="n">
-        <v>7.537528212832923</v>
+        <v>172.8129841194463</v>
       </c>
       <c r="M2" t="n">
-        <v>100.8144398466403</v>
+        <v>172.8129841194463</v>
       </c>
       <c r="N2" t="n">
-        <v>190.3225873740313</v>
+        <v>190.3225873740319</v>
       </c>
       <c r="O2" t="n">
-        <v>283.5994990078387</v>
+        <v>283.5994990078396</v>
       </c>
       <c r="P2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="R2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="S2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="T2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="U2" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="V2" t="n">
-        <v>376.8764106416461</v>
+        <v>281.7055998735545</v>
       </c>
       <c r="W2" t="n">
-        <v>376.8764106416461</v>
+        <v>281.7055998735545</v>
       </c>
       <c r="X2" t="n">
-        <v>376.8764106416461</v>
+        <v>281.7055998735545</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.8764106416461</v>
+        <v>186.5347891054618</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.537528212832923</v>
+        <v>197.8791497490184</v>
       </c>
       <c r="C3" t="n">
-        <v>7.537528212832923</v>
+        <v>197.8791497490184</v>
       </c>
       <c r="D3" t="n">
-        <v>7.537528212832923</v>
+        <v>102.7083389809257</v>
       </c>
       <c r="E3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="F3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="G3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="H3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="K3" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="L3" t="n">
-        <v>97.04567574022393</v>
+        <v>100.8144398466407</v>
       </c>
       <c r="M3" t="n">
-        <v>190.3225873740313</v>
+        <v>190.3225873740319</v>
       </c>
       <c r="N3" t="n">
-        <v>283.5994990078387</v>
+        <v>283.5994990078396</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5994990078387</v>
+        <v>283.5994990078396</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5994990078387</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="R3" t="n">
-        <v>376.8764106416461</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="S3" t="n">
-        <v>376.8764106416461</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="T3" t="n">
-        <v>376.8764106416461</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="U3" t="n">
-        <v>293.0499605171103</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="V3" t="n">
-        <v>197.8791497490179</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="W3" t="n">
-        <v>102.7083389809254</v>
+        <v>293.0499605171112</v>
       </c>
       <c r="X3" t="n">
-        <v>7.537528212832923</v>
+        <v>293.0499605171112</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.537528212832923</v>
+        <v>197.8791497490184</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="C4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="D4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="E4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="F4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="G4" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="H4" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I4" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J4" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="K4" t="n">
-        <v>7.537528212832923</v>
+        <v>41.14171595747636</v>
       </c>
       <c r="L4" t="n">
-        <v>34.0771920120861</v>
+        <v>134.4186275912841</v>
       </c>
       <c r="M4" t="n">
-        <v>127.3541036458935</v>
+        <v>227.6955392250917</v>
       </c>
       <c r="N4" t="n">
-        <v>220.6310152797009</v>
+        <v>313.9079269135095</v>
       </c>
       <c r="O4" t="n">
-        <v>313.9079269135083</v>
+        <v>313.9079269135095</v>
       </c>
       <c r="P4" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q4" t="n">
-        <v>338.3390692953352</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="R4" t="n">
-        <v>243.1682585272428</v>
+        <v>281.7055998735545</v>
       </c>
       <c r="S4" t="n">
-        <v>147.9974477591503</v>
+        <v>281.7055998735545</v>
       </c>
       <c r="T4" t="n">
-        <v>147.9974477591503</v>
+        <v>186.5347891054618</v>
       </c>
       <c r="U4" t="n">
-        <v>147.9974477591503</v>
+        <v>186.5347891054618</v>
       </c>
       <c r="V4" t="n">
-        <v>147.9974477591503</v>
+        <v>102.7083389809257</v>
       </c>
       <c r="W4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="X4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="Y4" t="n">
-        <v>147.9974477591503</v>
+        <v>7.537528212832946</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.7055998735537</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="C5" t="n">
-        <v>281.7055998735537</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7055998735537</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7055998735537</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="F5" t="n">
-        <v>186.5347891054612</v>
+        <v>85.78571595188951</v>
       </c>
       <c r="G5" t="n">
-        <v>102.7083389809254</v>
+        <v>73.72213344648155</v>
       </c>
       <c r="H5" t="n">
-        <v>102.7083389809254</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I5" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J5" t="n">
-        <v>7.537528212832923</v>
+        <v>79.53607248563861</v>
       </c>
       <c r="K5" t="n">
-        <v>100.8144398466403</v>
+        <v>172.8129841194463</v>
       </c>
       <c r="L5" t="n">
-        <v>100.8144398466403</v>
+        <v>266.089895753254</v>
       </c>
       <c r="M5" t="n">
-        <v>190.3225873740313</v>
+        <v>266.089895753254</v>
       </c>
       <c r="N5" t="n">
-        <v>283.5994990078387</v>
+        <v>359.3668073870617</v>
       </c>
       <c r="O5" t="n">
-        <v>376.8764106416461</v>
+        <v>359.3668073870617</v>
       </c>
       <c r="P5" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q5" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="R5" t="n">
-        <v>376.8764106416461</v>
+        <v>286.2381241375006</v>
       </c>
       <c r="S5" t="n">
-        <v>376.8764106416461</v>
+        <v>191.0673133694079</v>
       </c>
       <c r="T5" t="n">
-        <v>376.8764106416461</v>
+        <v>191.0673133694079</v>
       </c>
       <c r="U5" t="n">
-        <v>376.8764106416461</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="V5" t="n">
-        <v>376.8764106416461</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="W5" t="n">
-        <v>376.8764106416461</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="X5" t="n">
-        <v>376.8764106416461</v>
+        <v>95.89650260131513</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.7055998735537</v>
+        <v>95.89650260131513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.537528212832923</v>
+        <v>31.57970943231484</v>
       </c>
       <c r="C6" t="n">
-        <v>7.537528212832923</v>
+        <v>31.57970943231484</v>
       </c>
       <c r="D6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="E6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="F6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="G6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="H6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J6" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="K6" t="n">
-        <v>7.537528212832923</v>
+        <v>100.8144398466407</v>
       </c>
       <c r="L6" t="n">
-        <v>7.537528212832923</v>
+        <v>194.0913514804483</v>
       </c>
       <c r="M6" t="n">
-        <v>100.8144398466403</v>
+        <v>194.0913514804483</v>
       </c>
       <c r="N6" t="n">
-        <v>194.0913514804478</v>
+        <v>283.5994990078396</v>
       </c>
       <c r="O6" t="n">
-        <v>287.3682631142552</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="P6" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q6" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="R6" t="n">
-        <v>376.8764106416461</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="S6" t="n">
-        <v>281.7055998735537</v>
+        <v>317.0921417365931</v>
       </c>
       <c r="T6" t="n">
-        <v>197.8791497490179</v>
+        <v>221.9213309685003</v>
       </c>
       <c r="U6" t="n">
-        <v>197.8791497490179</v>
+        <v>221.9213309685003</v>
       </c>
       <c r="V6" t="n">
-        <v>197.8791497490179</v>
+        <v>221.9213309685003</v>
       </c>
       <c r="W6" t="n">
-        <v>102.7083389809254</v>
+        <v>126.7505202004076</v>
       </c>
       <c r="X6" t="n">
-        <v>7.537528212832923</v>
+        <v>126.7505202004076</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.537528212832923</v>
+        <v>31.57970943231484</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.7655775667527</v>
+        <v>52.82663699105812</v>
       </c>
       <c r="C7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="D7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="E7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="F7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="G7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="H7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="I7" t="n">
-        <v>67.5947667986602</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="J7" t="n">
-        <v>7.537528212832923</v>
+        <v>7.537528212832946</v>
       </c>
       <c r="K7" t="n">
-        <v>7.537528212832923</v>
+        <v>41.14171595747636</v>
       </c>
       <c r="L7" t="n">
-        <v>100.8144398466403</v>
+        <v>127.3541036458941</v>
       </c>
       <c r="M7" t="n">
-        <v>194.0913514804478</v>
+        <v>127.3541036458941</v>
       </c>
       <c r="N7" t="n">
-        <v>283.5994990078387</v>
+        <v>220.6310152797018</v>
       </c>
       <c r="O7" t="n">
-        <v>376.8764106416461</v>
+        <v>313.9079269135095</v>
       </c>
       <c r="P7" t="n">
-        <v>376.8764106416461</v>
+        <v>376.8764106416473</v>
       </c>
       <c r="Q7" t="n">
-        <v>376.8764106416461</v>
+        <v>338.3390692953363</v>
       </c>
       <c r="R7" t="n">
-        <v>376.8764106416461</v>
+        <v>338.3390692953363</v>
       </c>
       <c r="S7" t="n">
-        <v>376.8764106416461</v>
+        <v>338.3390692953363</v>
       </c>
       <c r="T7" t="n">
-        <v>376.8764106416461</v>
+        <v>243.1682585272436</v>
       </c>
       <c r="U7" t="n">
-        <v>376.8764106416461</v>
+        <v>147.9974477591509</v>
       </c>
       <c r="V7" t="n">
-        <v>281.7055998735537</v>
+        <v>52.82663699105812</v>
       </c>
       <c r="W7" t="n">
-        <v>186.5347891054612</v>
+        <v>52.82663699105812</v>
       </c>
       <c r="X7" t="n">
-        <v>162.7655775667527</v>
+        <v>52.82663699105812</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.7655775667527</v>
+        <v>52.82663699105812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.6890292330454</v>
+        <v>423.6451829832189</v>
       </c>
       <c r="C8" t="n">
-        <v>220.5816707387831</v>
+        <v>423.6451829832189</v>
       </c>
       <c r="D8" t="n">
-        <v>220.5816707387831</v>
+        <v>423.6451829832189</v>
       </c>
       <c r="E8" t="n">
-        <v>220.5816707387831</v>
+        <v>423.6451829832189</v>
       </c>
       <c r="F8" t="n">
-        <v>210.4708840893575</v>
+        <v>210.4708840893576</v>
       </c>
       <c r="G8" t="n">
         <v>198.4073015839496</v>
@@ -4799,55 +4799,55 @@
         <v>198.4073015839496</v>
       </c>
       <c r="I8" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="J8" t="n">
-        <v>25.59010279274558</v>
+        <v>97.58864706555127</v>
       </c>
       <c r="K8" t="n">
-        <v>25.59010279274558</v>
+        <v>97.58864706555127</v>
       </c>
       <c r="L8" t="n">
-        <v>342.2676248529721</v>
+        <v>414.2661691257781</v>
       </c>
       <c r="M8" t="n">
-        <v>658.9451469131985</v>
+        <v>414.2661691257781</v>
       </c>
       <c r="N8" t="n">
-        <v>975.622668973425</v>
+        <v>730.943691186005</v>
       </c>
       <c r="O8" t="n">
-        <v>1279.505139637279</v>
+        <v>956.9159894946901</v>
       </c>
       <c r="P8" t="n">
-        <v>1279.505139637279</v>
+        <v>1185.072885950743</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.505139637279</v>
+        <v>1279.50513963728</v>
       </c>
       <c r="R8" t="n">
-        <v>1279.505139637279</v>
+        <v>1188.866853133134</v>
       </c>
       <c r="S8" t="n">
-        <v>1092.276164267633</v>
+        <v>1001.637877763488</v>
       </c>
       <c r="T8" t="n">
-        <v>1092.276164267633</v>
+        <v>1001.637877763488</v>
       </c>
       <c r="U8" t="n">
-        <v>837.3908279816268</v>
+        <v>746.7525414774816</v>
       </c>
       <c r="V8" t="n">
-        <v>837.3908279816268</v>
+        <v>746.7525414774816</v>
       </c>
       <c r="W8" t="n">
-        <v>837.3908279816268</v>
+        <v>746.7525414774816</v>
       </c>
       <c r="X8" t="n">
-        <v>837.3908279816268</v>
+        <v>423.6451829832189</v>
       </c>
       <c r="Y8" t="n">
-        <v>543.6890292330454</v>
+        <v>423.6451829832189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>484.3424182917472</v>
+        <v>321.9875736019166</v>
       </c>
       <c r="C9" t="n">
-        <v>322.6387455327019</v>
+        <v>160.2839008428712</v>
       </c>
       <c r="D9" t="n">
-        <v>322.6387455327019</v>
+        <v>160.2839008428712</v>
       </c>
       <c r="E9" t="n">
-        <v>322.6387455327019</v>
+        <v>160.2839008428712</v>
       </c>
       <c r="F9" t="n">
-        <v>322.6387455327019</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="G9" t="n">
-        <v>193.9102455559865</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="H9" t="n">
-        <v>93.97238810268459</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="I9" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="J9" t="n">
-        <v>85.84424932585172</v>
+        <v>85.84424932585175</v>
       </c>
       <c r="K9" t="n">
-        <v>85.84424932585172</v>
+        <v>315.3348018860404</v>
       </c>
       <c r="L9" t="n">
-        <v>402.5217713860782</v>
+        <v>632.0123239462673</v>
       </c>
       <c r="M9" t="n">
-        <v>646.1500955168258</v>
+        <v>805.0559877914591</v>
       </c>
       <c r="N9" t="n">
-        <v>962.8276175770523</v>
+        <v>1121.733509851686</v>
       </c>
       <c r="O9" t="n">
-        <v>1279.505139637279</v>
+        <v>1121.733509851686</v>
       </c>
       <c r="P9" t="n">
-        <v>1279.505139637279</v>
+        <v>1121.733509851686</v>
       </c>
       <c r="Q9" t="n">
-        <v>1279.505139637279</v>
+        <v>1279.50513963728</v>
       </c>
       <c r="R9" t="n">
-        <v>1279.505139637279</v>
+        <v>1219.720870732226</v>
       </c>
       <c r="S9" t="n">
-        <v>1275.516044312325</v>
+        <v>1219.720870732226</v>
       </c>
       <c r="T9" t="n">
-        <v>1275.516044312325</v>
+        <v>1219.720870732226</v>
       </c>
       <c r="U9" t="n">
-        <v>1275.516044312325</v>
+        <v>1001.226078330536</v>
       </c>
       <c r="V9" t="n">
-        <v>1275.516044312325</v>
+        <v>1001.226078330536</v>
       </c>
       <c r="W9" t="n">
-        <v>1034.200175545635</v>
+        <v>871.845330855804</v>
       </c>
       <c r="X9" t="n">
-        <v>836.2831874234292</v>
+        <v>673.9283427335986</v>
       </c>
       <c r="Y9" t="n">
-        <v>643.761861073008</v>
+        <v>481.4070163831774</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="C10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="D10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="E10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="F10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="G10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="H10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="I10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="J10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="K10" t="n">
-        <v>59.19429053738899</v>
+        <v>59.19429053738902</v>
       </c>
       <c r="L10" t="n">
         <v>159.8013699376485</v>
       </c>
       <c r="M10" t="n">
-        <v>277.7948760652502</v>
+        <v>277.7948760652503</v>
       </c>
       <c r="N10" t="n">
         <v>396.2172178148506</v>
       </c>
       <c r="O10" t="n">
-        <v>494.6808643105402</v>
+        <v>494.6808643105403</v>
       </c>
       <c r="P10" t="n">
-        <v>557.649348038678</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="Q10" t="n">
-        <v>519.112006692367</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="R10" t="n">
-        <v>519.112006692367</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="S10" t="n">
-        <v>305.4022440960546</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="T10" t="n">
-        <v>305.4022440960546</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="U10" t="n">
-        <v>305.4022440960546</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="V10" t="n">
-        <v>305.4022440960546</v>
+        <v>311.7465042753465</v>
       </c>
       <c r="W10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="X10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.59010279274558</v>
+        <v>25.59010279274561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.680913508608</v>
+        <v>968.2405518229488</v>
       </c>
       <c r="C11" t="n">
-        <v>1342.239381105478</v>
+        <v>968.2405518229488</v>
       </c>
       <c r="D11" t="n">
-        <v>1058.907642596764</v>
+        <v>684.9088133142347</v>
       </c>
       <c r="E11" t="n">
-        <v>753.6141489669334</v>
+        <v>684.9088133142347</v>
       </c>
       <c r="F11" t="n">
-        <v>684.908813314235</v>
+        <v>684.9088133142347</v>
       </c>
       <c r="G11" t="n">
-        <v>358.6828621974208</v>
+        <v>358.6828621974207</v>
       </c>
       <c r="H11" t="n">
         <v>119.3049821691865</v>
@@ -5039,25 +5039,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P11" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
         <v>2542.695873660731</v>
@@ -5066,10 +5066,10 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2453.750750901112</v>
+        <v>2453.750750901111</v>
       </c>
       <c r="T11" t="n">
-        <v>2320.57291051569</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="U11" t="n">
         <v>2155.210665226941</v>
@@ -5081,10 +5081,10 @@
         <v>1634.680913508608</v>
       </c>
       <c r="X11" t="n">
-        <v>1634.680913508608</v>
+        <v>1576.841494237005</v>
       </c>
       <c r="Y11" t="n">
-        <v>1634.680913508608</v>
+        <v>1272.791865076905</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
@@ -5121,28 +5121,28 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K12" t="n">
-        <v>130.2226992162549</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L12" t="n">
-        <v>539.9733320966807</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M12" t="n">
-        <v>1076.269508877781</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N12" t="n">
-        <v>1640.154752666466</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.491355241773</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2421.221181382059</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
         <v>2346.762917934842</v>
@@ -5160,7 +5160,7 @@
         <v>1470.717153095992</v>
       </c>
       <c r="X12" t="n">
-        <v>1272.800164973787</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y12" t="n">
         <v>1080.278838623365</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>419.9544535021911</v>
+        <v>114.4335843813894</v>
       </c>
       <c r="C13" t="n">
-        <v>339.8307102279339</v>
+        <v>114.4335843813894</v>
       </c>
       <c r="D13" t="n">
-        <v>276.251043319759</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>276.251043319759</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>213.2626146095986</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>134.0081529509464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>65.66640102907864</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>91.69505674979132</v>
+        <v>91.69505674979138</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7169638270792</v>
+        <v>232.7169638270793</v>
       </c>
       <c r="L13" t="n">
-        <v>446.2527666318768</v>
+        <v>446.2527666318769</v>
       </c>
       <c r="M13" t="n">
-        <v>678.5458083128453</v>
+        <v>678.5458083128452</v>
       </c>
       <c r="N13" t="n">
         <v>910.6354775381749</v>
@@ -5218,7 +5218,7 @@
         <v>1291.979214699444</v>
       </c>
       <c r="Q13" t="n">
-        <v>1356.12319156128</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="R13" t="n">
         <v>1303.875075247596</v>
@@ -5227,22 +5227,22 @@
         <v>1182.673515097047</v>
       </c>
       <c r="T13" t="n">
-        <v>1182.673515097047</v>
+        <v>1039.72622938983</v>
       </c>
       <c r="U13" t="n">
-        <v>984.9849415252693</v>
+        <v>842.0376558180524</v>
       </c>
       <c r="V13" t="n">
-        <v>984.9849415252693</v>
+        <v>670.7945776405375</v>
       </c>
       <c r="W13" t="n">
-        <v>788.3207663067308</v>
+        <v>474.1304024219991</v>
       </c>
       <c r="X13" t="n">
-        <v>646.560528466169</v>
+        <v>332.3701645814373</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.0175959225085</v>
+        <v>199.8272320377769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1723.483683047289</v>
+        <v>733.5420568801076</v>
       </c>
       <c r="C14" t="n">
-        <v>1431.042150644159</v>
+        <v>441.1005244769778</v>
       </c>
       <c r="D14" t="n">
-        <v>1147.710412135445</v>
+        <v>441.1005244769778</v>
       </c>
       <c r="E14" t="n">
-        <v>842.4169185056141</v>
+        <v>441.1005244769778</v>
       </c>
       <c r="F14" t="n">
-        <v>517.757954079847</v>
+        <v>441.1005244769778</v>
       </c>
       <c r="G14" t="n">
-        <v>191.5320029630326</v>
+        <v>358.6828621974207</v>
       </c>
       <c r="H14" t="n">
         <v>119.3049821691865</v>
@@ -5279,10 +5279,10 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5294,7 +5294,7 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P14" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
         <v>2542.695873660731</v>
@@ -5303,25 +5303,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2453.750750901112</v>
+        <v>2453.750750901111</v>
       </c>
       <c r="T14" t="n">
-        <v>2320.57291051569</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="U14" t="n">
-        <v>2320.57291051569</v>
+        <v>2155.21066522694</v>
       </c>
       <c r="V14" t="n">
-        <v>2320.57291051569</v>
+        <v>1907.723617386944</v>
       </c>
       <c r="W14" t="n">
-        <v>2320.57291051569</v>
+        <v>1634.680913508608</v>
       </c>
       <c r="X14" t="n">
-        <v>2028.034996301246</v>
+        <v>1342.142999294163</v>
       </c>
       <c r="Y14" t="n">
-        <v>2028.034996301246</v>
+        <v>1038.093370134064</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5355,22 +5355,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.222699216255</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845234</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L15" t="n">
-        <v>802.1338407649492</v>
+        <v>539.9733320966807</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.43001754605</v>
+        <v>1076.269508877781</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1640.154752666466</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122673</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
         <v>2359.098500262959</v>
@@ -5382,19 +5382,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.5970729194021</v>
+        <v>252.0753483514617</v>
       </c>
       <c r="C16" t="n">
-        <v>310.4733296451448</v>
+        <v>171.9516050772045</v>
       </c>
       <c r="D16" t="n">
-        <v>310.4733296451448</v>
+        <v>108.3719381690299</v>
       </c>
       <c r="E16" t="n">
-        <v>247.9565416705264</v>
+        <v>108.3719381690299</v>
       </c>
       <c r="F16" t="n">
-        <v>247.9565416705264</v>
+        <v>108.3719381690299</v>
       </c>
       <c r="G16" t="n">
-        <v>168.702080011874</v>
+        <v>108.3719381690299</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3603280900062</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69505674979131</v>
+        <v>91.69505674979135</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7169638270792</v>
+        <v>232.7169638270793</v>
       </c>
       <c r="L16" t="n">
-        <v>446.2527666318767</v>
+        <v>446.2527666318769</v>
       </c>
       <c r="M16" t="n">
-        <v>678.5458083128451</v>
+        <v>678.5458083128453</v>
       </c>
       <c r="N16" t="n">
-        <v>910.6354775381747</v>
+        <v>910.6354775381749</v>
       </c>
       <c r="O16" t="n">
-        <v>1120.785018876022</v>
+        <v>1120.785018876023</v>
       </c>
       <c r="P16" t="n">
         <v>1291.979214699444</v>
       </c>
       <c r="Q16" t="n">
-        <v>1356.12319156128</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="R16" t="n">
-        <v>1303.875075247595</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="S16" t="n">
-        <v>1182.673515097047</v>
+        <v>1234.921631410732</v>
       </c>
       <c r="T16" t="n">
-        <v>1039.726229389829</v>
+        <v>1091.974345703515</v>
       </c>
       <c r="U16" t="n">
-        <v>930.2064639014568</v>
+        <v>894.2857721317372</v>
       </c>
       <c r="V16" t="n">
-        <v>758.9633857239419</v>
+        <v>723.0426939542223</v>
       </c>
       <c r="W16" t="n">
-        <v>758.9633857239419</v>
+        <v>526.3785187356839</v>
       </c>
       <c r="X16" t="n">
-        <v>617.20314788338</v>
+        <v>384.6182808951221</v>
       </c>
       <c r="Y16" t="n">
-        <v>484.6602153397195</v>
+        <v>252.0753483514617</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D17" t="n">
-        <v>935.3698007579765</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E17" t="n">
-        <v>707.8364086071171</v>
+        <v>707.8364086071166</v>
       </c>
       <c r="F17" t="n">
-        <v>460.9375456603211</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G17" t="n">
         <v>212.4716960224776</v>
@@ -5513,7 +5513,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
         <v>443.1860302481634</v>
@@ -5525,13 +5525,13 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O17" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
         <v>2542.695873660731</v>
@@ -5540,7 +5540,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T17" t="n">
         <v>2476.093113473632</v>
@@ -5552,13 +5552,13 @@
         <v>2218.76402330283</v>
       </c>
       <c r="W17" t="n">
-        <v>2023.481420903465</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.703608167992</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.414080486864</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D18" t="n">
         <v>620.3170860732707</v>
@@ -5592,25 +5592,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>130.222699216255</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845234</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L18" t="n">
-        <v>661.4480243753526</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1761.629444945138</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.695873660731</v>
@@ -5619,19 +5619,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.71191944818172</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C19" t="n">
-        <v>52.34827765289575</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.34827765289575</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.34827765289575</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.34827765289575</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G19" t="n">
         <v>50.85391747321462</v>
@@ -5683,19 +5683,19 @@
         <v>374.5706761520457</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>630.7420932465484</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
         <v>587.300634574971</v>
@@ -5716,7 +5716,7 @@
         <v>125.797791454217</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.01496038952781</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D20" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579757</v>
       </c>
       <c r="E20" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071163</v>
       </c>
       <c r="F20" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603204</v>
       </c>
       <c r="G20" t="n">
         <v>212.4716960224776</v>
@@ -5747,28 +5747,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85391747321503</v>
+        <v>50.85391747321482</v>
       </c>
       <c r="J20" t="n">
-        <v>154.945905453264</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481639</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907125</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M20" t="n">
-        <v>1310.379159876957</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
         <v>1756.181478599933</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.89697738289</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P20" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
         <v>2542.695873660731</v>
@@ -5777,16 +5777,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T20" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V20" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W20" t="n">
         <v>2023.481420903464</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H21" t="n">
         <v>112.1289883137699</v>
@@ -5829,22 +5829,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>130.222699216255</v>
+        <v>68.10001809715402</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845234</v>
+        <v>68.10001809715402</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649492</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.146827758681</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
         <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.368674122673</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
         <v>2359.098500262959</v>
@@ -5853,22 +5853,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S21" t="n">
         <v>2346.762917934842</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.7940490061718</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C22" t="n">
-        <v>122.4304072108859</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D22" t="n">
-        <v>122.4304072108859</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E22" t="n">
-        <v>122.4304072108859</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F22" t="n">
-        <v>52.34827765289572</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G22" t="n">
         <v>50.85391747321462</v>
@@ -5920,40 +5920,40 @@
         <v>374.5706761520457</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>700.8242228045382</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>700.8242228045382</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>657.3827641329609</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T22" t="n">
-        <v>592.1955799047146</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U22" t="n">
-        <v>472.2671078119083</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V22" t="n">
-        <v>378.7841311133647</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W22" t="n">
-        <v>259.8800573737975</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X22" t="n">
-        <v>195.879921012207</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0970899475179</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D23" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579756</v>
       </c>
       <c r="E23" t="n">
-        <v>707.8364086071169</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F23" t="n">
-        <v>460.9375456603211</v>
+        <v>460.9375456603204</v>
       </c>
       <c r="G23" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H23" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85391747321482</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907121</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N23" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O23" t="n">
         <v>2124.896977382889</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C24" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D24" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E24" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F24" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G24" t="n">
         <v>210.0732042050868</v>
@@ -6072,7 +6072,7 @@
         <v>392.3832078845234</v>
       </c>
       <c r="L24" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M24" t="n">
         <v>1014.14682775868</v>
@@ -6093,19 +6093,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X24" t="n">
         <v>1272.800164973786</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G25" t="n">
         <v>50.85391747321462</v>
@@ -6172,25 +6172,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S25" t="n">
-        <v>587.3006345749704</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T25" t="n">
-        <v>522.1134503467241</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U25" t="n">
-        <v>402.1849782539179</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V25" t="n">
-        <v>308.7020015553743</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W25" t="n">
-        <v>189.7979278158072</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X25" t="n">
-        <v>125.7977914542167</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.01496038952763</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1781.512829068194</v>
+        <v>1781.512829068195</v>
       </c>
       <c r="C26" t="n">
-        <v>1507.23905206412</v>
+        <v>1507.239052064121</v>
       </c>
       <c r="D26" t="n">
-        <v>1242.075068954463</v>
+        <v>1242.075068954464</v>
       </c>
       <c r="E26" t="n">
-        <v>954.9493307236888</v>
+        <v>954.9493307236896</v>
       </c>
       <c r="F26" t="n">
-        <v>648.4581216969782</v>
+        <v>648.4581216969789</v>
       </c>
       <c r="G26" t="n">
-        <v>340.3999259792203</v>
+        <v>340.3999259792201</v>
       </c>
       <c r="H26" t="n">
-        <v>119.1898013500427</v>
+        <v>119.1898013500426</v>
       </c>
       <c r="I26" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312729</v>
       </c>
       <c r="J26" t="n">
-        <v>278.5160280611994</v>
+        <v>278.5160280611992</v>
       </c>
       <c r="K26" t="n">
-        <v>672.2737008841223</v>
+        <v>672.273700884122</v>
       </c>
       <c r="L26" t="n">
         <v>1185.348618554694</v>
@@ -6236,40 +6236,40 @@
         <v>1750.501926568961</v>
       </c>
       <c r="N26" t="n">
-        <v>2301.82179331996</v>
+        <v>2301.821793319961</v>
       </c>
       <c r="O26" t="n">
-        <v>2776.054840130939</v>
+        <v>2776.054840130941</v>
       </c>
       <c r="P26" t="n">
-        <v>3164.105075974608</v>
+        <v>3164.105075974609</v>
       </c>
       <c r="Q26" t="n">
-        <v>3404.888832464827</v>
+        <v>3404.888832464828</v>
       </c>
       <c r="R26" t="n">
-        <v>3445.324602656364</v>
+        <v>3445.324602656365</v>
       </c>
       <c r="S26" t="n">
-        <v>3374.547235295801</v>
+        <v>3374.547235295802</v>
       </c>
       <c r="T26" t="n">
-        <v>3259.537150309436</v>
+        <v>3259.537150309437</v>
       </c>
       <c r="U26" t="n">
-        <v>3112.342660419743</v>
+        <v>3112.342660419744</v>
       </c>
       <c r="V26" t="n">
-        <v>2883.023367978804</v>
+        <v>2883.023367978805</v>
       </c>
       <c r="W26" t="n">
-        <v>2628.148419499524</v>
+        <v>2628.148419499525</v>
       </c>
       <c r="X26" t="n">
         <v>2353.778260684137</v>
       </c>
       <c r="Y26" t="n">
-        <v>2067.896386923094</v>
+        <v>2067.896386923095</v>
       </c>
     </row>
     <row r="27">
@@ -6294,28 +6294,28 @@
         <v>356.647852659929</v>
       </c>
       <c r="G27" t="n">
-        <v>228.1257787849994</v>
+        <v>228.1257787849995</v>
       </c>
       <c r="H27" t="n">
         <v>130.1815628936826</v>
       </c>
       <c r="I27" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312729</v>
       </c>
       <c r="J27" t="n">
-        <v>148.2752737961676</v>
+        <v>68.90649205312729</v>
       </c>
       <c r="K27" t="n">
-        <v>410.435782464436</v>
+        <v>331.0670007213957</v>
       </c>
       <c r="L27" t="n">
-        <v>820.1864153448618</v>
+        <v>740.8176336018214</v>
       </c>
       <c r="M27" t="n">
-        <v>1356.482592125962</v>
+        <v>1277.113810382922</v>
       </c>
       <c r="N27" t="n">
-        <v>1596.084646127277</v>
+        <v>1840.999054171607</v>
       </c>
       <c r="O27" t="n">
         <v>2036.421248702585</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.043455324254</v>
+        <v>408.0434553242539</v>
       </c>
       <c r="C28" t="n">
-        <v>346.0874674490533</v>
+        <v>346.0874674490532</v>
       </c>
       <c r="D28" t="n">
-        <v>300.6755559399351</v>
+        <v>300.675555939935</v>
       </c>
       <c r="E28" t="n">
-        <v>256.326523364373</v>
+        <v>256.3265233643729</v>
       </c>
       <c r="F28" t="n">
         <v>211.5058500532691</v>
@@ -6379,7 +6379,7 @@
         <v>100.2451472708622</v>
       </c>
       <c r="I28" t="n">
-        <v>68.90649205312728</v>
+        <v>68.90649205312729</v>
       </c>
       <c r="J28" t="n">
         <v>127.5538483963194</v>
@@ -6388,22 +6388,22 @@
         <v>286.3819725402226</v>
       </c>
       <c r="L28" t="n">
-        <v>495.9912484140862</v>
+        <v>517.7239924116357</v>
       </c>
       <c r="M28" t="n">
-        <v>746.09050716167</v>
+        <v>767.8232511592195</v>
       </c>
       <c r="N28" t="n">
-        <v>995.9863934536149</v>
+        <v>1017.719137451164</v>
       </c>
       <c r="O28" t="n">
         <v>1223.942151858078</v>
       </c>
       <c r="P28" t="n">
-        <v>1412.942564748115</v>
+        <v>1412.942564748114</v>
       </c>
       <c r="Q28" t="n">
-        <v>1494.892758676567</v>
+        <v>1494.892758676566</v>
       </c>
       <c r="R28" t="n">
         <v>1460.812397761938</v>
@@ -6418,13 +6418,13 @@
         <v>1053.478244529564</v>
       </c>
       <c r="V28" t="n">
-        <v>900.4029217511057</v>
+        <v>900.4029217511056</v>
       </c>
       <c r="W28" t="n">
-        <v>721.9065019316239</v>
+        <v>721.9065019316238</v>
       </c>
       <c r="X28" t="n">
-        <v>598.3140194901187</v>
+        <v>598.3140194901185</v>
       </c>
       <c r="Y28" t="n">
         <v>483.9388423455147</v>
@@ -6443,43 +6443,43 @@
         <v>1507.23905206412</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.075068954462</v>
+        <v>1242.075068954463</v>
       </c>
       <c r="E29" t="n">
-        <v>954.9493307236885</v>
+        <v>954.9493307236889</v>
       </c>
       <c r="F29" t="n">
-        <v>648.458121696978</v>
+        <v>648.4581216969784</v>
       </c>
       <c r="G29" t="n">
-        <v>340.3999259792204</v>
+        <v>340.3999259792208</v>
       </c>
       <c r="H29" t="n">
-        <v>119.1898013500425</v>
+        <v>119.1898013500426</v>
       </c>
       <c r="I29" t="n">
         <v>68.90649205312727</v>
       </c>
       <c r="J29" t="n">
-        <v>278.5160280611984</v>
+        <v>278.5160280611994</v>
       </c>
       <c r="K29" t="n">
-        <v>672.2737008841211</v>
+        <v>672.2737008841223</v>
       </c>
       <c r="L29" t="n">
-        <v>1185.348618554693</v>
+        <v>1185.348618554694</v>
       </c>
       <c r="M29" t="n">
-        <v>1750.50192656896</v>
+        <v>1750.501926568961</v>
       </c>
       <c r="N29" t="n">
-        <v>2301.821793319959</v>
+        <v>2301.82179331996</v>
       </c>
       <c r="O29" t="n">
-        <v>2776.054840130939</v>
+        <v>2776.05484013094</v>
       </c>
       <c r="P29" t="n">
-        <v>3164.105075974608</v>
+        <v>3164.105075974609</v>
       </c>
       <c r="Q29" t="n">
         <v>3404.888832464827</v>
@@ -6488,7 +6488,7 @@
         <v>3445.324602656363</v>
       </c>
       <c r="S29" t="n">
-        <v>3374.547235295801</v>
+        <v>3374.5472352958</v>
       </c>
       <c r="T29" t="n">
         <v>3259.537150309436</v>
@@ -6543,16 +6543,16 @@
         <v>148.2752737961676</v>
       </c>
       <c r="K30" t="n">
-        <v>410.435782464436</v>
+        <v>148.2752737961676</v>
       </c>
       <c r="L30" t="n">
-        <v>820.1864153448618</v>
+        <v>495.903225557492</v>
       </c>
       <c r="M30" t="n">
-        <v>1356.482592125962</v>
+        <v>1032.199402338592</v>
       </c>
       <c r="N30" t="n">
-        <v>1920.367835914647</v>
+        <v>1596.084646127277</v>
       </c>
       <c r="O30" t="n">
         <v>2036.421248702585</v>
@@ -6622,16 +6622,16 @@
         <v>127.5538483963194</v>
       </c>
       <c r="K31" t="n">
-        <v>286.3819725402226</v>
+        <v>264.6492285426726</v>
       </c>
       <c r="L31" t="n">
-        <v>517.7239924116357</v>
+        <v>495.9912484140856</v>
       </c>
       <c r="M31" t="n">
-        <v>767.8232511592195</v>
+        <v>746.0905071616694</v>
       </c>
       <c r="N31" t="n">
-        <v>1017.719137451164</v>
+        <v>995.9863934536144</v>
       </c>
       <c r="O31" t="n">
         <v>1223.942151858078</v>
@@ -6680,37 +6680,37 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D32" t="n">
-        <v>935.3698007579766</v>
+        <v>935.3698007579761</v>
       </c>
       <c r="E32" t="n">
-        <v>707.8364086071172</v>
+        <v>707.8364086071168</v>
       </c>
       <c r="F32" t="n">
-        <v>460.9375456603213</v>
+        <v>460.937545660321</v>
       </c>
       <c r="G32" t="n">
         <v>212.4716960224775</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321482</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M32" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N32" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O32" t="n">
         <v>2124.896977382889</v>
@@ -6719,28 +6719,28 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R32" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S32" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T32" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V32" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.481420903465</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.703608167992</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y32" t="n">
         <v>1582.414080486863</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C33" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D33" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E33" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G33" t="n">
         <v>210.0732042050868</v>
@@ -6774,49 +6774,49 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J33" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K33" t="n">
-        <v>251.6973914949265</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L33" t="n">
-        <v>661.4480243753522</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547364</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P33" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R33" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S33" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T33" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U33" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W33" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X33" t="n">
         <v>1272.800164973786</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.8399158560554</v>
+        <v>54.71191944818153</v>
       </c>
       <c r="C34" t="n">
-        <v>146.4762740607695</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4762740607695</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4762740607695</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="F34" t="n">
-        <v>146.4762740607695</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="G34" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H34" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I34" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J34" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K34" t="n">
         <v>104.1644935890949</v>
@@ -6889,19 +6889,19 @@
         <v>616.241446754598</v>
       </c>
       <c r="U34" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539177</v>
       </c>
       <c r="V34" t="n">
-        <v>402.8299979632481</v>
+        <v>308.7020015553741</v>
       </c>
       <c r="W34" t="n">
-        <v>283.925924223681</v>
+        <v>189.797927815807</v>
       </c>
       <c r="X34" t="n">
-        <v>219.9257878620906</v>
+        <v>125.7977914542166</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.1429567974014</v>
+        <v>71.01496038952754</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D35" t="n">
-        <v>935.3698007579762</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E35" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071166</v>
       </c>
       <c r="F35" t="n">
-        <v>460.9375456603211</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G35" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H35" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85391747321482</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532633</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481636</v>
+        <v>443.186030248163</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907114</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6962,7 +6962,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T35" t="n">
         <v>2476.093113473632</v>
@@ -7020,7 +7020,7 @@
         <v>392.3832078845234</v>
       </c>
       <c r="L36" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M36" t="n">
         <v>1014.14682775868</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.8399158560555</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C37" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E37" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F37" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G37" t="n">
         <v>50.85391747321462</v>
@@ -7120,25 +7120,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>681.4286309828443</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T37" t="n">
-        <v>616.241446754598</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U37" t="n">
-        <v>496.3129746617918</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V37" t="n">
-        <v>402.8299979632482</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W37" t="n">
-        <v>283.9259242236811</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9257878620907</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.1429567974016</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D38" t="n">
-        <v>935.3698007579762</v>
+        <v>935.3698007579765</v>
       </c>
       <c r="E38" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071172</v>
       </c>
       <c r="F38" t="n">
-        <v>460.9375456603211</v>
+        <v>460.9375456603212</v>
       </c>
       <c r="G38" t="n">
         <v>212.4716960224775</v>
@@ -7205,16 +7205,16 @@
         <v>2476.093113473632</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V38" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.703608167992</v>
       </c>
       <c r="Y38" t="n">
         <v>1582.414080486863</v>
@@ -7242,7 +7242,7 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H39" t="n">
         <v>112.1289883137699</v>
@@ -7251,13 +7251,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K39" t="n">
-        <v>392.3832078845234</v>
+        <v>68.10001809715402</v>
       </c>
       <c r="L39" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M39" t="n">
         <v>1014.14682775868</v>
@@ -7366,13 +7366,13 @@
         <v>496.3129746617918</v>
       </c>
       <c r="V40" t="n">
-        <v>402.8299979632482</v>
+        <v>308.7020015553741</v>
       </c>
       <c r="W40" t="n">
-        <v>283.9259242236811</v>
+        <v>189.797927815807</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9257878620907</v>
+        <v>125.7977914542166</v>
       </c>
       <c r="Y40" t="n">
         <v>71.01496038952754</v>
@@ -7391,37 +7391,37 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D41" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579766</v>
       </c>
       <c r="E41" t="n">
-        <v>707.8364086071166</v>
+        <v>707.8364086071172</v>
       </c>
       <c r="F41" t="n">
-        <v>460.9375456603207</v>
+        <v>460.9375456603213</v>
       </c>
       <c r="G41" t="n">
-        <v>212.4716960224776</v>
+        <v>212.4716960224775</v>
       </c>
       <c r="H41" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321482</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907121</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7436,7 +7436,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T41" t="n">
         <v>2476.093113473632</v>
@@ -7448,10 +7448,10 @@
         <v>2218.76402330283</v>
       </c>
       <c r="W41" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.703608167992</v>
       </c>
       <c r="Y41" t="n">
         <v>1582.414080486863</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C42" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D42" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E42" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G42" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H42" t="n">
         <v>112.1289883137699</v>
@@ -7488,16 +7488,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845234</v>
+        <v>68.10001809715402</v>
       </c>
       <c r="L42" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M42" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N42" t="n">
         <v>1578.032071547365</v>
@@ -7515,19 +7515,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S42" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X42" t="n">
         <v>1272.800164973786</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.71191944818171</v>
+        <v>54.7119194481816</v>
       </c>
       <c r="C43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289568</v>
       </c>
       <c r="D43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289568</v>
       </c>
       <c r="E43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289568</v>
       </c>
       <c r="F43" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289568</v>
       </c>
       <c r="G43" t="n">
         <v>50.85391747321462</v>
@@ -7594,25 +7594,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>681.4286309828442</v>
+        <v>681.4286309828443</v>
       </c>
       <c r="T43" t="n">
-        <v>522.1134503467246</v>
+        <v>616.241446754598</v>
       </c>
       <c r="U43" t="n">
-        <v>402.1849782539183</v>
+        <v>402.1849782539179</v>
       </c>
       <c r="V43" t="n">
-        <v>308.7020015553746</v>
+        <v>308.7020015553743</v>
       </c>
       <c r="W43" t="n">
-        <v>189.7979278158075</v>
+        <v>189.7979278158072</v>
       </c>
       <c r="X43" t="n">
-        <v>125.797791454217</v>
+        <v>125.7977914542167</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.0149603895278</v>
+        <v>71.01496038952763</v>
       </c>
     </row>
     <row r="44">
@@ -7625,64 +7625,64 @@
         <v>1355.622868711877</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D44" t="n">
-        <v>935.3698007579758</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E44" t="n">
-        <v>707.8364086071164</v>
+        <v>707.8364086071165</v>
       </c>
       <c r="F44" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G44" t="n">
-        <v>212.4716960224776</v>
+        <v>212.4716960224775</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321482</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481627</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907112</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N44" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O44" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P44" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198534</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S44" t="n">
         <v>2531.510852380082</v>
       </c>
       <c r="T44" t="n">
-        <v>2476.093113473632</v>
+        <v>2476.093113473631</v>
       </c>
       <c r="U44" t="n">
         <v>2388.490969663854</v>
       </c>
       <c r="V44" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W44" t="n">
         <v>2023.481420903464</v>
@@ -7701,55 +7701,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421036</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830583</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732704</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301416</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800163</v>
+        <v>338.595278080016</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050865</v>
       </c>
       <c r="H45" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="J45" t="n">
-        <v>130.2226992162549</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="K45" t="n">
-        <v>392.3832078845234</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L45" t="n">
-        <v>802.1338407649491</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.430017546049</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N45" t="n">
-        <v>1902.315261334734</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O45" t="n">
-        <v>2342.651863910041</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q45" t="n">
         <v>2542.69587366073</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S45" t="n">
         <v>2346.762917934841</v>
@@ -7770,7 +7770,7 @@
         <v>1272.800164973786</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.71191944818171</v>
+        <v>54.71191944818158</v>
       </c>
       <c r="C46" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289567</v>
       </c>
       <c r="D46" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289567</v>
       </c>
       <c r="E46" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289567</v>
       </c>
       <c r="F46" t="n">
-        <v>52.34827765289574</v>
+        <v>52.34827765289567</v>
       </c>
       <c r="G46" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="H46" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="I46" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="J46" t="n">
-        <v>50.85391747321462</v>
+        <v>50.8539174732146</v>
       </c>
       <c r="K46" t="n">
         <v>104.1644935890949</v>
@@ -7831,25 +7831,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>681.4286309828442</v>
+        <v>587.3006345749704</v>
       </c>
       <c r="T46" t="n">
-        <v>616.2414467545977</v>
+        <v>522.1134503467241</v>
       </c>
       <c r="U46" t="n">
-        <v>496.3129746617914</v>
+        <v>402.1849782539179</v>
       </c>
       <c r="V46" t="n">
-        <v>402.8299979632478</v>
+        <v>308.7020015553743</v>
       </c>
       <c r="W46" t="n">
-        <v>189.7979278158075</v>
+        <v>189.7979278158072</v>
       </c>
       <c r="X46" t="n">
-        <v>125.797791454217</v>
+        <v>125.7977914542167</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.0149603895278</v>
+        <v>71.01496038952762</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>285.7793148235264</v>
       </c>
       <c r="M2" t="n">
-        <v>281.3754171575706</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>276.810384401918</v>
+        <v>204.084582106155</v>
       </c>
       <c r="O2" t="n">
-        <v>281.173899440532</v>
+        <v>281.1738994405323</v>
       </c>
       <c r="P2" t="n">
-        <v>282.095911711568</v>
+        <v>282.0959117115683</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8061,22 +8061,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>202.9877038008357</v>
+        <v>206.7945362315596</v>
       </c>
       <c r="M3" t="n">
-        <v>209.7030052220514</v>
+        <v>205.896172791328</v>
       </c>
       <c r="N3" t="n">
-        <v>200.9342437281198</v>
+        <v>200.9342437281201</v>
       </c>
       <c r="O3" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>203.0733086845551</v>
       </c>
       <c r="Q3" t="n">
-        <v>207.954294105304</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,19 +8137,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L4" t="n">
-        <v>136.4015406898729</v>
+        <v>203.8129021389179</v>
       </c>
       <c r="M4" t="n">
-        <v>207.0963021178407</v>
+        <v>207.0963021178409</v>
       </c>
       <c r="N4" t="n">
-        <v>197.9636075384135</v>
+        <v>190.8277247652926</v>
       </c>
       <c r="O4" t="n">
-        <v>206.7150401525338</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
         <v>175.5085323082534</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>273.0421066344583</v>
+        <v>273.0421066344585</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>285.7793148235264</v>
       </c>
       <c r="M5" t="n">
-        <v>277.568584726847</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>280.6172168326416</v>
+        <v>280.6172168326419</v>
       </c>
       <c r="O5" t="n">
-        <v>281.173899440532</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>205.5632769850814</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8295,22 +8295,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>206.2152718270785</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>206.7945362315596</v>
       </c>
       <c r="M6" t="n">
-        <v>209.7030052220514</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>200.9342437281198</v>
+        <v>197.1274112973965</v>
       </c>
       <c r="O6" t="n">
-        <v>210.0785512715227</v>
+        <v>210.0785512715229</v>
       </c>
       <c r="P6" t="n">
-        <v>199.2664762538312</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8374,22 +8374,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L7" t="n">
-        <v>203.8129021389177</v>
+        <v>196.6770193657967</v>
       </c>
       <c r="M7" t="n">
-        <v>207.0963021178407</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>194.1567751076898</v>
+        <v>197.9636075384138</v>
       </c>
       <c r="O7" t="n">
-        <v>206.7150401525338</v>
+        <v>206.7150401525341</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>511.4364970724343</v>
+        <v>511.4364970724347</v>
       </c>
       <c r="M8" t="n">
-        <v>507.0325994064788</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>506.2743990815498</v>
+        <v>506.2743990815502</v>
       </c>
       <c r="O8" t="n">
-        <v>493.9067873496697</v>
+        <v>415.20964355657</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>432.4517184804674</v>
+        <v>432.4517184804679</v>
       </c>
       <c r="M9" t="n">
-        <v>361.5731188553244</v>
+        <v>290.2754822032477</v>
       </c>
       <c r="N9" t="n">
-        <v>426.591425977028</v>
+        <v>426.5914259770284</v>
       </c>
       <c r="O9" t="n">
-        <v>435.7357335204308</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>78.99621350193964</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836203</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.350291108018</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>295.5863090836202</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>449.2708321111617</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9240,16 +9240,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>339.9855636524801</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>358.0282919211322</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>101.1681629939447</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>277.8578053120008</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9720,10 +9720,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314976</v>
       </c>
       <c r="M24" t="n">
-        <v>277.8578053120006</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,10 +9963,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>295.5863090836198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>264.6327241058805</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10191,10 +10191,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>419.3422659459096</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10203,7 +10203,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10428,13 +10428,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>201.6979228743351</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120001</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.6485817356219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10668,10 +10668,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314976</v>
       </c>
       <c r="M36" t="n">
-        <v>277.8578053120006</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10899,16 +10899,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>96.4165171624845</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>277.8578053120006</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>96.4165171624845</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>295.5863090836203</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>86.44282166891881</v>
+        <v>352.0652005990321</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5058001214171</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.5171170790989</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F11" t="n">
-        <v>253.3940924853381</v>
+        <v>321.4123747815095</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6125350722998</v>
+        <v>232.3515099934126</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0091328684986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.582799816290619</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79.32250584151464</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89162009487254</v>
+        <v>61.89162009487248</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35854442305879</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.46191704206583</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.65833440264899</v>
       </c>
       <c r="I13" t="n">
-        <v>34.34698779031825</v>
+        <v>49.01134651062358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>141.5178128501455</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5306473957398</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.4984211236268</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4123747815095</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.3702059488845</v>
       </c>
       <c r="H14" t="n">
-        <v>165.4793506420444</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7086228358612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0121773615963</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3122768395532</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0091328684986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>93.12251099611416</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.94387023909312</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.89162009487248</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35854442305887</v>
+        <v>62.35854442305879</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78.46191704206583</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10.71549391379189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.01134651062358</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.72563515054813</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>87.28712000257157</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.6975334663531</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979327.2023256562</v>
+        <v>979327.2023256563</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307049.6241976728</v>
+      </c>
+      <c r="C2" t="n">
         <v>307049.6241976726</v>
-      </c>
-      <c r="C2" t="n">
-        <v>307049.6241976727</v>
       </c>
       <c r="D2" t="n">
         <v>307049.6241976726</v>
       </c>
       <c r="E2" t="n">
-        <v>266666.2618557803</v>
+        <v>266666.2618557804</v>
       </c>
       <c r="F2" t="n">
-        <v>266666.2618557802</v>
+        <v>266666.2618557806</v>
       </c>
       <c r="G2" t="n">
-        <v>307049.6241976726</v>
+        <v>307049.6241976727</v>
       </c>
       <c r="H2" t="n">
+        <v>307049.6241976728</v>
+      </c>
+      <c r="I2" t="n">
         <v>307049.6241976727</v>
       </c>
-      <c r="I2" t="n">
-        <v>307049.6241976725</v>
-      </c>
       <c r="J2" t="n">
-        <v>307049.6241976722</v>
+        <v>307049.6241976724</v>
       </c>
       <c r="K2" t="n">
         <v>307049.6241976719</v>
@@ -26344,16 +26344,16 @@
         <v>307049.6241976726</v>
       </c>
       <c r="M2" t="n">
+        <v>307049.6241976725</v>
+      </c>
+      <c r="N2" t="n">
         <v>307049.6241976726</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>307049.6241976725</v>
       </c>
-      <c r="O2" t="n">
-        <v>307049.6241976727</v>
-      </c>
       <c r="P2" t="n">
-        <v>307049.6241976728</v>
+        <v>307049.6241976725</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31574.98834086509</v>
+        <v>31574.98834086519</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70095.89052197833</v>
+        <v>70095.89052197838</v>
       </c>
       <c r="E3" t="n">
-        <v>241499.6676820822</v>
+        <v>241499.667682082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61586.00037134529</v>
+        <v>61586.00037134522</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107374.415794659</v>
+        <v>107374.4157946593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>108783.1384666378</v>
+        <v>108783.1384666377</v>
       </c>
       <c r="M3" t="n">
-        <v>78698.04592039516</v>
+        <v>78698.04592039494</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23680.7051058449</v>
+        <v>23680.70510584505</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>345450.4514975111</v>
       </c>
       <c r="D4" t="n">
-        <v>302199.7102252887</v>
+        <v>302199.7102252886</v>
       </c>
       <c r="E4" t="n">
-        <v>172329.4883631853</v>
+        <v>172329.4883631854</v>
       </c>
       <c r="F4" t="n">
-        <v>172329.4883631853</v>
+        <v>172329.4883631854</v>
       </c>
       <c r="G4" t="n">
         <v>229756.4510440663</v>
@@ -26439,10 +26439,10 @@
         <v>229756.4510440663</v>
       </c>
       <c r="J4" t="n">
+        <v>230905.3765422572</v>
+      </c>
+      <c r="K4" t="n">
         <v>230905.3765422571</v>
-      </c>
-      <c r="K4" t="n">
-        <v>230905.3765422572</v>
       </c>
       <c r="L4" t="n">
         <v>229756.4510440663</v>
@@ -26451,7 +26451,7 @@
         <v>229756.4510440663</v>
       </c>
       <c r="N4" t="n">
-        <v>229756.4510440664</v>
+        <v>229756.4510440663</v>
       </c>
       <c r="O4" t="n">
         <v>229756.4510440663</v>
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39356.12144175302</v>
+        <v>39356.12144175304</v>
       </c>
       <c r="C5" t="n">
-        <v>39356.12144175302</v>
+        <v>39356.12144175304</v>
       </c>
       <c r="D5" t="n">
-        <v>53076.07812248664</v>
+        <v>53076.07812248666</v>
       </c>
       <c r="E5" t="n">
-        <v>48168.48921240022</v>
+        <v>48168.48921240021</v>
       </c>
       <c r="F5" t="n">
-        <v>48168.48921240022</v>
+        <v>48168.48921240021</v>
       </c>
       <c r="G5" t="n">
-        <v>54640.33104392351</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="H5" t="n">
-        <v>54640.33104392351</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="I5" t="n">
         <v>54640.33104392349</v>
       </c>
       <c r="J5" t="n">
-        <v>63400.51747149069</v>
+        <v>63400.5174714907</v>
       </c>
       <c r="K5" t="n">
         <v>63400.51747149069</v>
@@ -26500,7 +26500,7 @@
         <v>54640.33104392349</v>
       </c>
       <c r="M5" t="n">
-        <v>54640.3310439235</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="N5" t="n">
         <v>54640.3310439235</v>
@@ -26509,7 +26509,7 @@
         <v>54640.33104392349</v>
       </c>
       <c r="P5" t="n">
-        <v>54640.33104392349</v>
+        <v>54640.33104392348</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109331.9370824566</v>
+        <v>-109331.9370824565</v>
       </c>
       <c r="C6" t="n">
-        <v>-77756.94874159145</v>
+        <v>-77756.94874159151</v>
       </c>
       <c r="D6" t="n">
         <v>-118322.054672081</v>
       </c>
       <c r="E6" t="n">
-        <v>-195331.3834018874</v>
+        <v>-195583.779416524</v>
       </c>
       <c r="F6" t="n">
-        <v>46168.28428019473</v>
+        <v>45915.8882655582</v>
       </c>
       <c r="G6" t="n">
-        <v>-38933.15826166247</v>
+        <v>-38933.15826166231</v>
       </c>
       <c r="H6" t="n">
-        <v>22652.84210968288</v>
+        <v>22652.84210968298</v>
       </c>
       <c r="I6" t="n">
+        <v>22652.84210968293</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-94630.68561073478</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12743.73018392411</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-86130.29635695495</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-56045.20381071222</v>
+      </c>
+      <c r="N6" t="n">
         <v>22652.84210968269</v>
       </c>
-      <c r="J6" t="n">
-        <v>-94630.68561073471</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12743.73018392408</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-86130.296356955</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-56045.20381071243</v>
-      </c>
-      <c r="N6" t="n">
-        <v>22652.84210968263</v>
-      </c>
       <c r="O6" t="n">
-        <v>-1027.862996161988</v>
+        <v>-1027.862996162366</v>
       </c>
       <c r="P6" t="n">
-        <v>22652.84210968301</v>
+        <v>22652.84210968271</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G2" t="n">
         <v>165.5798044656034</v>
@@ -26713,10 +26713,10 @@
         <v>106.5833818464879</v>
       </c>
       <c r="L2" t="n">
+        <v>165.5798044656035</v>
+      </c>
+      <c r="M2" t="n">
         <v>165.5798044656034</v>
-      </c>
-      <c r="M2" t="n">
-        <v>165.5798044656035</v>
       </c>
       <c r="N2" t="n">
         <v>165.5798044656035</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988888</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988882</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988882</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="I3" t="n">
         <v>95.01032947988875</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="D4" t="n">
-        <v>319.8762849093197</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="I4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="J4" t="n">
-        <v>861.331150664091</v>
+        <v>861.3311506640912</v>
       </c>
       <c r="K4" t="n">
         <v>861.3311506640908</v>
       </c>
       <c r="L4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="M4" t="n">
         <v>635.6739684151827</v>
@@ -26829,7 +26829,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151825</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418153</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.60088138230621</v>
+        <v>29.60088138230634</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>135.9789230832972</v>
+        <v>135.9789230832971</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230613</v>
+        <v>29.60088138230631</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6571822489082</v>
+        <v>225.6571822489083</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7976835058631</v>
+        <v>315.7976835058626</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>319.8762849093198</v>
+        <v>319.8762849093204</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058631</v>
+        <v>315.7976835058627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418153</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230621</v>
+        <v>29.60088138230634</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>225.6571822489082</v>
+        <v>225.6571822489083</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058631</v>
+        <v>315.7976835058626</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>317.0788609205152</v>
       </c>
       <c r="D2" t="n">
-        <v>274.8766224646371</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>315.7905761225198</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>328.9547610570634</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>235.2739589982523</v>
+        <v>235.273958998252</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27436,7 +27436,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>239.3903787026063</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>295.3873342095085</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>43.23114797927822</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>51.33862718328565</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27512,19 +27512,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>133.3216588543825</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8925636657378</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>144.6836074186115</v>
+        <v>215.100950671736</v>
       </c>
       <c r="X3" t="n">
-        <v>101.7187155805718</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>96.37701042650512</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>87.63189699494329</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>53.80746091135403</v>
+        <v>53.80746091135374</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3535623099378</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>136.6280609920661</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>175.1397657738709</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>189.0757348073631</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27625,16 +27625,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>315.7905761225198</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>328.9547610570634</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>263.9703024773517</v>
       </c>
       <c r="I5" t="n">
-        <v>76.86992414288041</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>91.13758295553775</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>158.1173802627341</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.3873342095088</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>113.648491232403</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>57.05238945697558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>103.8100671723842</v>
+        <v>92.57915013526282</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27755,13 +27755,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>144.6836074186115</v>
+        <v>144.6836074186112</v>
       </c>
       <c r="X6" t="n">
-        <v>101.7187155805718</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>96.37701042650512</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>73.70070718252497</v>
+        <v>123.0835921524936</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27825,19 +27825,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>136.6280609920661</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>190.0992344553793</v>
       </c>
       <c r="V7" t="n">
-        <v>163.9088487367501</v>
+        <v>163.9088487367498</v>
       </c>
       <c r="W7" t="n">
-        <v>189.0757348073633</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>205.4084200402565</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27853,7 +27853,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>58.23813617120101</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27862,7 +27862,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>198.9671228780087</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>58.33355416440151</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.84165610882479</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.3222877456825</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>110.8157700790382</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146329</v>
       </c>
       <c r="W10" t="n">
-        <v>6.280817577499022</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="L13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="M13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="N13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="O13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="P13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="R13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="S13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180439</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="L16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="M16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="N16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="O16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="P16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="R16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="S16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.59730400142178</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="17">
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180441</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
         <v>165.5798044656034</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138464</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R19" t="n">
-        <v>47.13622270817544</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T19" t="n">
         <v>165.5798044656034</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180441</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
         <v>165.5798044656034</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>81.57454016207041</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>165.5798044656034</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180889</v>
       </c>
       <c r="T22" t="n">
         <v>165.5798044656034</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>65.73916953180444</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
-        <v>72.39308802180832</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T25" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180892</v>
       </c>
       <c r="U25" t="n">
         <v>165.5798044656034</v>
@@ -29308,7 +29308,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="N26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464885</v>
       </c>
       <c r="O26" t="n">
         <v>106.5833818464879</v>
@@ -29460,7 +29460,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="L28" t="n">
-        <v>84.63111518229654</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="M28" t="n">
         <v>106.5833818464879</v>
@@ -29469,7 +29469,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="O28" t="n">
-        <v>106.5833818464879</v>
+        <v>84.6311151822959</v>
       </c>
       <c r="P28" t="n">
         <v>106.5833818464879</v>
@@ -29694,7 +29694,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="K31" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229594</v>
       </c>
       <c r="L31" t="n">
         <v>106.5833818464879</v>
@@ -29706,7 +29706,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="O31" t="n">
-        <v>84.6311151822959</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="P31" t="n">
         <v>106.5833818464879</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I32" t="n">
         <v>156.363858050434</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="33">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,7 +29919,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>72.3930880218084</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H34" t="n">
         <v>156.2556384040709</v>
@@ -29955,25 +29955,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U34" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180815</v>
       </c>
       <c r="V34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I35" t="n">
         <v>156.363858050434</v>
@@ -30034,25 +30034,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C37" t="n">
-        <v>72.39308802180823</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H37" t="n">
         <v>156.2556384040709</v>
@@ -30192,25 +30192,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V37" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180901</v>
       </c>
       <c r="W37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="38">
@@ -30438,7 +30438,7 @@
         <v>165.5798044656035</v>
       </c>
       <c r="V40" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180815</v>
       </c>
       <c r="W40" t="n">
         <v>165.5798044656035</v>
@@ -30447,7 +30447,7 @@
         <v>165.5798044656035</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.39308802180821</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="41">
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30669,10 +30669,10 @@
         <v>165.5798044656034</v>
       </c>
       <c r="T43" t="n">
-        <v>72.39308802180892</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U43" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180832</v>
       </c>
       <c r="V43" t="n">
         <v>165.5798044656034</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180832</v>
       </c>
       <c r="T46" t="n">
         <v>165.5798044656034</v>
@@ -30915,7 +30915,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="W46" t="n">
-        <v>72.39308802180901</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X46" t="n">
         <v>165.5798044656034</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285794</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L11" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712772</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531192</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309365</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712762</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P12" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302823</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549336</v>
@@ -31923,34 +31923,34 @@
         <v>19.90544279922915</v>
       </c>
       <c r="L13" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M13" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146321</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R13" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884373</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859852</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290097</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285796</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630641</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850217</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757816</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M14" t="n">
-        <v>67.0672663971278</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841016</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911408</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736632</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531196</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730079</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504395</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309401</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287881</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680629</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365239</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689886</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326686</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472707</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869717</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653943</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309369</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712766</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806984</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927063</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488026</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880464</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T15" t="n">
-        <v>0.823721630113376</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0134448579452673</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407832</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448055</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302827</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549337</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922917</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891972</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511022</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N16" t="n">
-        <v>26.2181782972946</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267726</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492526</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146322</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795577</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884376</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T16" t="n">
-        <v>0.732046800910619</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497277</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290094</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850215</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757812</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712775</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410157</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911405</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736628</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531193</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S17" t="n">
-        <v>8.70371008250439</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287879</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680628</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689881</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326685</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869714</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M18" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309366</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712763</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806982</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927061</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880461</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133755</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448055</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302825</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J19" t="n">
         <v>12.11303823549336</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L19" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511021</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146321</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795573</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884374</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106186</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497272</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290094</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850215</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757812</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712775</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410157</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911405</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736628</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531193</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S20" t="n">
-        <v>8.70371008250439</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287879</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680628</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689881</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326685</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869714</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M21" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309366</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712763</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806982</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927061</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880461</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133755</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448055</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302825</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J22" t="n">
         <v>12.11303823549336</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L22" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511021</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146321</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795573</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884374</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106186</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497272</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="M2" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>90.41227022968788</v>
+        <v>17.68646793392486</v>
       </c>
       <c r="O2" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="P2" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90.41227022968788</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="M3" t="n">
-        <v>94.21910266041154</v>
+        <v>90.41227022968815</v>
       </c>
       <c r="N3" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L4" t="n">
-        <v>26.80774121136685</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="M4" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="N4" t="n">
-        <v>94.21910266041154</v>
+        <v>87.08321988729062</v>
       </c>
       <c r="O4" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>63.604529018321</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="M5" t="n">
-        <v>90.41227022968788</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="O5" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.68646793392486</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="M6" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>94.21910266041154</v>
+        <v>90.41227022968815</v>
       </c>
       <c r="O6" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="P6" t="n">
-        <v>90.41227022968785</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L7" t="n">
-        <v>94.21910266041154</v>
+        <v>87.08321988729062</v>
       </c>
       <c r="M7" t="n">
-        <v>94.21910266041154</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>90.41227022968785</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="O7" t="n">
-        <v>94.21910266041154</v>
+        <v>94.21910266041182</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>319.8762849093197</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="M8" t="n">
-        <v>319.8762849093197</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>319.8762849093197</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="O8" t="n">
-        <v>306.9519905695492</v>
+        <v>228.2548467764495</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>319.8762849093197</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="M9" t="n">
-        <v>246.0892162936845</v>
+        <v>174.7915796416078</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8762849093197</v>
+        <v>319.8762849093201</v>
       </c>
       <c r="O9" t="n">
-        <v>319.8762849093197</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35422,7 +35422,7 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
@@ -35489,7 +35489,7 @@
         <v>80.17048660913163</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35498,7 +35498,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320049</v>
+        <v>242.0222767690056</v>
       </c>
       <c r="O12" t="n">
         <v>444.7844470457649</v>
@@ -35507,7 +35507,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.7017093723961</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.25367603694617</v>
+        <v>41.25367603694622</v>
       </c>
       <c r="K13" t="n">
         <v>142.4463707851393</v>
@@ -35574,10 +35574,10 @@
         <v>215.6927301058562</v>
       </c>
       <c r="M13" t="n">
-        <v>234.6394360413822</v>
+        <v>234.6394360413823</v>
       </c>
       <c r="N13" t="n">
-        <v>234.4340093185147</v>
+        <v>234.4340093185148</v>
       </c>
       <c r="O13" t="n">
         <v>212.272263977624</v>
@@ -35586,7 +35586,7 @@
         <v>172.9234301246681</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.79189582003715</v>
+        <v>64.79189582003721</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>105.1434222020697</v>
       </c>
       <c r="K14" t="n">
-        <v>291.1516412069696</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.278545440651</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P14" t="n">
         <v>285.3865533491372</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913164</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144126</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620463</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798995</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0222767690056</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457649</v>
+        <v>382.0342640971782</v>
       </c>
       <c r="P15" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.451892320982</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.25367603694615</v>
+        <v>41.25367603694622</v>
       </c>
       <c r="K16" t="n">
-        <v>142.4463707851392</v>
+        <v>142.4463707851393</v>
       </c>
       <c r="L16" t="n">
-        <v>215.6927301058561</v>
+        <v>215.6927301058562</v>
       </c>
       <c r="M16" t="n">
-        <v>234.6394360413822</v>
+        <v>234.6394360413823</v>
       </c>
       <c r="N16" t="n">
-        <v>234.4340093185147</v>
+        <v>234.4340093185148</v>
       </c>
       <c r="O16" t="n">
         <v>212.272263977624</v>
       </c>
       <c r="P16" t="n">
-        <v>172.923430124668</v>
+        <v>172.9234301246681</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.79189582003714</v>
+        <v>64.79189582003721</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>105.1434222020697</v>
       </c>
       <c r="K17" t="n">
-        <v>291.1516412069696</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L17" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
         <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491372</v>
+        <v>285.386553349137</v>
       </c>
       <c r="Q17" t="n">
         <v>136.6325338001978</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913164</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
-        <v>271.7826429200294</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798995</v>
+        <v>294.3250189260317</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457649</v>
@@ -35981,7 +35981,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371746</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M19" t="n">
         <v>146.0421320399604</v>
@@ -36057,7 +36057,7 @@
         <v>123.6749599762022</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>105.1434222020697</v>
       </c>
       <c r="K20" t="n">
-        <v>291.1516412069696</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L20" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
         <v>464.2785454406509</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P20" t="n">
         <v>285.3865533491372</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913164</v>
+        <v>17.42030366054485</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144126</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>413.8895281620463</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>214.1545323169003</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
         <v>444.7844470457649</v>
@@ -36218,7 +36218,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.451892320982</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371746</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L22" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M22" t="n">
         <v>146.0421320399604</v>
@@ -36294,7 +36294,7 @@
         <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q23" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L24" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904689</v>
       </c>
       <c r="M24" t="n">
-        <v>214.1545323169</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
         <v>569.5810543320048</v>
@@ -36604,7 +36604,7 @@
         <v>570.8619272871388</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8887542939386</v>
+        <v>556.8887542939392</v>
       </c>
       <c r="O26" t="n">
         <v>479.0232796070503</v>
@@ -36616,7 +36616,7 @@
         <v>243.2159156466856</v>
       </c>
       <c r="R26" t="n">
-        <v>40.84421231468342</v>
+        <v>40.84421231468344</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17048660913163</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.8085946144125</v>
@@ -36683,10 +36683,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>242.0222767690051</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O27" t="n">
-        <v>444.7844470457649</v>
+        <v>197.396156091897</v>
       </c>
       <c r="P27" t="n">
         <v>344.1715415558448</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23975388201221</v>
+        <v>59.23975388201222</v>
       </c>
       <c r="K28" t="n">
         <v>160.4324486302053</v>
       </c>
       <c r="L28" t="n">
-        <v>211.7265412867309</v>
+        <v>233.6788079509222</v>
       </c>
       <c r="M28" t="n">
         <v>252.6255138864483</v>
@@ -36765,13 +36765,13 @@
         <v>252.4200871635808</v>
       </c>
       <c r="O28" t="n">
-        <v>230.25834182269</v>
+        <v>208.3060751584981</v>
       </c>
       <c r="P28" t="n">
         <v>190.9095079697341</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.7779736651032</v>
+        <v>82.77797366510322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>80.17048660913163</v>
       </c>
       <c r="K30" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>413.8895281620462</v>
+        <v>351.139345213459</v>
       </c>
       <c r="M30" t="n">
         <v>541.7133098798994</v>
@@ -36923,7 +36923,7 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O30" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P30" t="n">
         <v>344.1715415558448</v>
@@ -36990,7 +36990,7 @@
         <v>59.23975388201222</v>
       </c>
       <c r="K31" t="n">
-        <v>160.4324486302053</v>
+        <v>138.4801819660134</v>
       </c>
       <c r="L31" t="n">
         <v>233.6788079509222</v>
@@ -37002,7 +37002,7 @@
         <v>252.4200871635808</v>
       </c>
       <c r="O31" t="n">
-        <v>208.3060751584981</v>
+        <v>230.25834182269</v>
       </c>
       <c r="P31" t="n">
         <v>190.9095079697341</v>
@@ -37075,7 +37075,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M32" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406506</v>
       </c>
       <c r="N32" t="n">
         <v>450.3053724474507</v>
@@ -37148,13 +37148,13 @@
         <v>80.17048660913163</v>
       </c>
       <c r="K33" t="n">
-        <v>122.7017093723955</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M33" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323168996</v>
       </c>
       <c r="N33" t="n">
         <v>569.5810543320048</v>
@@ -37166,7 +37166,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L36" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904689</v>
       </c>
       <c r="M36" t="n">
-        <v>214.1545323169</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
         <v>569.5810543320048</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913163</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054485</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>214.1545323169</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N39" t="n">
         <v>569.5810543320048</v>
@@ -37795,7 +37795,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P41" t="n">
-        <v>285.3865533491372</v>
+        <v>285.386553349137</v>
       </c>
       <c r="Q41" t="n">
         <v>136.6325338001978</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17048660913163</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054485</v>
       </c>
       <c r="L42" t="n">
         <v>413.8895281620462</v>
@@ -37868,7 +37868,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N42" t="n">
-        <v>242.0222767690056</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O42" t="n">
         <v>444.7844470457649</v>
@@ -38017,7 +38017,7 @@
         <v>105.1434222020697</v>
       </c>
       <c r="K44" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069689</v>
       </c>
       <c r="L44" t="n">
         <v>411.674110750049</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17048660913163</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.8085946144125</v>
@@ -38111,10 +38111,10 @@
         <v>444.7844470457649</v>
       </c>
       <c r="P45" t="n">
-        <v>16.61276399284526</v>
+        <v>282.2351429229585</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
